--- a/file/template/pusdiklat/evaluation/student.checklist.xlsx
+++ b/file/template/pusdiklat/evaluation/student.checklist.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -111,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -147,11 +147,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -184,23 +225,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +603,7 @@
     <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
     <col min="10" max="11" width="15" style="1" customWidth="1"/>
@@ -564,68 +612,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -655,575 +703,72 @@
       <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="12">
+      <c r="I7" s="13"/>
+      <c r="J7" s="15">
         <f>A7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="16">
         <f>A8</f>
         <v>0</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="4"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="12">
-        <f t="shared" ref="J9:J36" si="0">A9</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="shared" ref="K9:K36" si="1">A10</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="4"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="12">
-        <f t="shared" ref="J11:J36" si="2">A11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" ref="K11:K36" si="3">A12</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="12">
-        <f t="shared" ref="J13:J36" si="4">A13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
-        <f t="shared" ref="K13:K36" si="5">A14</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="12">
-        <f t="shared" ref="J15:J36" si="6">A15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="shared" ref="K15:K36" si="7">A16</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="12">
-        <f t="shared" ref="J17:J36" si="8">A17</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
-        <f t="shared" ref="K17:K36" si="9">A18</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="12">
-        <f t="shared" ref="J19:J36" si="10">A19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="13">
-        <f t="shared" ref="K19:K36" si="11">A20</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="12">
-        <f t="shared" ref="J21:J36" si="12">A21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="13">
-        <f t="shared" ref="K21:K36" si="13">A22</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="12">
-        <f t="shared" ref="J23:J36" si="14">A23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <f t="shared" ref="K23:K36" si="15">A24</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="12">
-        <f t="shared" ref="J25:J36" si="16">A25</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
-        <f t="shared" ref="K25:K36" si="17">A26</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="12">
-        <f t="shared" ref="J27:J36" si="18">A27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="13">
-        <f t="shared" ref="K27:K36" si="19">A28</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="12">
-        <f t="shared" ref="J29:J36" si="20">A29</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="13">
-        <f t="shared" ref="K29:K36" si="21">A30</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="12">
-        <f t="shared" ref="J31:J36" si="22">A31</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="13">
-        <f t="shared" ref="K31:K36" si="23">A32</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="12">
-        <f t="shared" ref="J33:J36" si="24">A33</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="13">
-        <f t="shared" ref="K33:K36" si="25">A34</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="12">
-        <f t="shared" ref="J35:J36" si="26">A35</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="13">
-        <f>A36</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="8"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="36">
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
+  <mergeCells count="6">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244093999" right="0.23622047244093999" top="0.74803149606299002" bottom="0.85416666666666996" header="0.31496062992126" footer="0.31496062992126"/>
